--- a/Data/privatization_contracts_over_control.xlsx
+++ b/Data/privatization_contracts_over_control.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="15015" windowHeight="5100" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="18960" windowHeight="14680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="control over contracts" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Analysis of the control over the fulfillment of the terms of sales contracts by groups of privatization objects</t>
   </si>
@@ -51,12 +63,6 @@
     <t>objects of unfinished construction</t>
   </si>
   <si>
-    <t>control status "1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control status "0" </t>
-  </si>
-  <si>
     <t>contracts without state control</t>
   </si>
   <si>
@@ -64,13 +70,25 @@
   </si>
   <si>
     <t>Data is given as the comulative total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control status "not controlled" </t>
+  </si>
+  <si>
+    <t>control status "controlled"</t>
+  </si>
+  <si>
+    <t>controlled</t>
+  </si>
+  <si>
+    <t>not controlled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +135,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,14 +184,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -195,14 +218,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -229,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,20 +429,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -428,67 +453,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
       <c r="C2">
         <v>6559</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3">
         <v>5997</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4">
         <v>689</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5">
         <v>8341</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1081</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2937</v>
@@ -500,34 +525,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -535,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -543,7 +568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -551,35 +576,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/privatization_contracts_over_control.xlsx
+++ b/Data/privatization_contracts_over_control.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="18960" windowHeight="14680" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="375" windowWidth="15015" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="control over contracts" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Analysis of the control over the fulfillment of the terms of sales contracts by groups of privatization objects</t>
   </si>
@@ -36,12 +24,6 @@
     <t>object class</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B,G</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -51,18 +33,15 @@
     <t>number of objects</t>
   </si>
   <si>
-    <t>Data source - data is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.24-28 http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
-  </si>
-  <si>
-    <t>small companies</t>
-  </si>
-  <si>
-    <t>B - big companies. G - companies of strategic importance</t>
-  </si>
-  <si>
     <t>objects of unfinished construction</t>
   </si>
   <si>
+    <t>control status "1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control status "0" </t>
+  </si>
+  <si>
     <t>contracts without state control</t>
   </si>
   <si>
@@ -72,23 +51,32 @@
     <t>Data is given as the comulative total</t>
   </si>
   <si>
-    <t xml:space="preserve">control status "not controlled" </t>
-  </si>
-  <si>
-    <t>control status "controlled"</t>
-  </si>
-  <si>
-    <t>controlled</t>
-  </si>
-  <si>
-    <t>not controlled</t>
+    <t>B,G,Е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B - big companies. G - companies of strategic importance, Е - </t>
+  </si>
+  <si>
+    <t>A, Zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A - small companies, Zh - socio-cultural  objects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data source - </t>
+  </si>
+  <si>
+    <t>Official response of SPFU from 10.24.2017 No. 10.23.6001 to enquiry No. Ш-00191/17 dated 27.02.2017</t>
+  </si>
+  <si>
+    <t>B,G, E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,18 +123,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,14 +167,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -218,15 +201,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -253,10 +235,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,94 +410,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>8689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>8452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
-        <v>6559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>5997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>8341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2937</v>
+        <v>2934</v>
       </c>
     </row>
   </sheetData>
@@ -525,74 +506,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>